--- a/medicine/Enfance/Peggy_Adam/Peggy_Adam.xlsx
+++ b/medicine/Enfance/Peggy_Adam/Peggy_Adam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peggy Adam, née en 1974, est une auteure de bande dessinée et une illustratrice française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peggy Adam a étudié à l'école des beaux-arts de Saint-Étienne, à Université de l'École d'art et de design de l'Ontario à 
 Toronto et à l'École supérieure de l'image d'Angoulême.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peggy Adam a créé des affiches pour la scène nationale d'Angoulême, le théâtre de Tulle, et divers dessins pour la presse (Le Monde, Libération, Femme actuelle, Femina, Le Courrier, Bang, Topo) et pour l'édition destinée à la jeunesse.
 </t>
@@ -578,11 +594,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tout public
-J'ai pas fermé l'œil de la nuit, avec le conteur Yannick Jaulin
+          <t>Tout public</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J'ai pas fermé l'œil de la nuit, avec le conteur Yannick Jaulin
 participation au Comix 2000, L'Association, 2000
 Plus ou moins… le printemps, Éditions Atrabile, 2005
-Pax ! Savoir vivre ensemble à l'école, collectif[1], Jeune Chambre économique de Genève, 2006
+Pax ! Savoir vivre ensemble à l'école, collectif, Jeune Chambre économique de Genève, 2006
 Plus ou moins… l'été, Éditions Atrabile, 2006
 Luchadoras, Éditions Atrabile, 2006
 Plus ou moins… l'automne, Éditions Atrabile, 2007
@@ -594,9 +615,43 @@
 Josette a disparu!, Éditions Friture, 2017
 Les sales gosses, Éditions Atrabile, 2019 (Prix BDzoom 2021)
 Un Monde Meilleur (avec Pierre Wazem) éditions Association Un Monde Meilleur, 2021
-Emkla, Éditions Atrabile, 2023
-Livres pour la jeunesse
-La Petite Histoire, avec Yannick Jaulin, Éditions Geste
+Emkla, Éditions Atrabile, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Peggy_Adam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peggy_Adam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Petite Histoire, avec Yannick Jaulin, Éditions Geste
 La Gaule, textes de Anne Royer, Éditions Mango, collection Regard junior
 La Légende du pompier à plumes, Éditions Mango
 L'Histoire de France, Éditions Mango
@@ -616,31 +671,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Peggy_Adam</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Peggy_Adam</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2016 : Prix Töpffer Genève pour Plus ou moins..., t. 4 : L'Hiver
 2016 : Bourse Culturelle Leenaards
